--- a/Code/Results/Cases/Case_2_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019805349866942</v>
+        <v>1.042550952377426</v>
       </c>
       <c r="D2">
-        <v>1.035522455226629</v>
+        <v>1.04626258578844</v>
       </c>
       <c r="E2">
-        <v>1.025460059355099</v>
+        <v>1.058171073134544</v>
       </c>
       <c r="F2">
-        <v>1.034597001291921</v>
+        <v>1.065436855929432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055749564589016</v>
+        <v>1.045247703823105</v>
       </c>
       <c r="J2">
-        <v>1.041409403099739</v>
+        <v>1.047626167743156</v>
       </c>
       <c r="K2">
-        <v>1.046508131615228</v>
+        <v>1.049028513544368</v>
       </c>
       <c r="L2">
-        <v>1.036575734041416</v>
+        <v>1.060904037257699</v>
       </c>
       <c r="M2">
-        <v>1.045594501854928</v>
+        <v>1.068150099556459</v>
       </c>
       <c r="N2">
-        <v>1.017214646358402</v>
+        <v>1.019715539324603</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02484900087551</v>
+        <v>1.043570650321521</v>
       </c>
       <c r="D3">
-        <v>1.039434531432809</v>
+        <v>1.047063344749364</v>
       </c>
       <c r="E3">
-        <v>1.030581095628446</v>
+        <v>1.059318491080247</v>
       </c>
       <c r="F3">
-        <v>1.039955899852489</v>
+        <v>1.066625080528694</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057776261998373</v>
+        <v>1.045584376023714</v>
       </c>
       <c r="J3">
-        <v>1.044684439601539</v>
+        <v>1.048292001340359</v>
       </c>
       <c r="K3">
-        <v>1.049586528567995</v>
+        <v>1.049640907810585</v>
       </c>
       <c r="L3">
-        <v>1.040837084789553</v>
+        <v>1.061864590060655</v>
       </c>
       <c r="M3">
-        <v>1.050101841265471</v>
+        <v>1.06915279106903</v>
       </c>
       <c r="N3">
-        <v>1.018340143884365</v>
+        <v>1.019941468569128</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028036686079512</v>
+        <v>1.044230277128939</v>
       </c>
       <c r="D4">
-        <v>1.041908824642592</v>
+        <v>1.047581258023352</v>
       </c>
       <c r="E4">
-        <v>1.033828164676813</v>
+        <v>1.060061707928994</v>
       </c>
       <c r="F4">
-        <v>1.043351898664715</v>
+        <v>1.067394587894369</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059046229219514</v>
+        <v>1.045800825015711</v>
       </c>
       <c r="J4">
-        <v>1.046749419455753</v>
+        <v>1.048722059370135</v>
       </c>
       <c r="K4">
-        <v>1.051526449050133</v>
+        <v>1.050036283447408</v>
       </c>
       <c r="L4">
-        <v>1.043534762013783</v>
+        <v>1.062486308186568</v>
       </c>
       <c r="M4">
-        <v>1.052953811944205</v>
+        <v>1.069801668228632</v>
       </c>
       <c r="N4">
-        <v>1.019049431238831</v>
+        <v>1.020087285160783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029359334942763</v>
+        <v>1.044507539970328</v>
       </c>
       <c r="D5">
-        <v>1.042935846761336</v>
+        <v>1.047798932998742</v>
       </c>
       <c r="E5">
-        <v>1.035177956409261</v>
+        <v>1.060374338818515</v>
       </c>
       <c r="F5">
-        <v>1.044763151439693</v>
+        <v>1.067718244028635</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059570505328327</v>
+        <v>1.045891484848253</v>
       </c>
       <c r="J5">
-        <v>1.047605019580609</v>
+        <v>1.048902668774837</v>
       </c>
       <c r="K5">
-        <v>1.052329965185436</v>
+        <v>1.050202287483889</v>
       </c>
       <c r="L5">
-        <v>1.044655137709297</v>
+        <v>1.062747721028903</v>
       </c>
       <c r="M5">
-        <v>1.054137924696565</v>
+        <v>1.070074472973225</v>
       </c>
       <c r="N5">
-        <v>1.019343221460798</v>
+        <v>1.020148496641947</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029580410024475</v>
+        <v>1.044554091032739</v>
       </c>
       <c r="D6">
-        <v>1.04310752982176</v>
+        <v>1.047835478303568</v>
       </c>
       <c r="E6">
-        <v>1.03540371520286</v>
+        <v>1.060426841635982</v>
       </c>
       <c r="F6">
-        <v>1.044999163659323</v>
+        <v>1.067772596433889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059657978068737</v>
+        <v>1.045906687367878</v>
       </c>
       <c r="J6">
-        <v>1.047747957330524</v>
+        <v>1.048932982921667</v>
       </c>
       <c r="K6">
-        <v>1.05246418573256</v>
+        <v>1.050230147862786</v>
       </c>
       <c r="L6">
-        <v>1.044842464546387</v>
+        <v>1.062791615900432</v>
       </c>
       <c r="M6">
-        <v>1.054335888237735</v>
+        <v>1.070120279084569</v>
       </c>
       <c r="N6">
-        <v>1.019392296678682</v>
+        <v>1.020158769049306</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028054427044063</v>
+        <v>1.044233982102223</v>
       </c>
       <c r="D7">
-        <v>1.041922598879561</v>
+        <v>1.047584166826633</v>
       </c>
       <c r="E7">
-        <v>1.033846259832664</v>
+        <v>1.060065884600513</v>
       </c>
       <c r="F7">
-        <v>1.043370819524797</v>
+        <v>1.067398911992935</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059053272026408</v>
+        <v>1.045802037734493</v>
       </c>
       <c r="J7">
-        <v>1.046760900627533</v>
+        <v>1.048724473416661</v>
       </c>
       <c r="K7">
-        <v>1.051537232383333</v>
+        <v>1.05003850243421</v>
       </c>
       <c r="L7">
-        <v>1.043549785744993</v>
+        <v>1.062489801030151</v>
       </c>
       <c r="M7">
-        <v>1.052969691714042</v>
+        <v>1.069805313392589</v>
       </c>
       <c r="N7">
-        <v>1.019053373950826</v>
+        <v>1.020088103424623</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021526033801771</v>
+        <v>1.042895602722743</v>
       </c>
       <c r="D8">
-        <v>1.036856685754791</v>
+        <v>1.046533253692985</v>
       </c>
       <c r="E8">
-        <v>1.027204936191092</v>
+        <v>1.058558691136786</v>
       </c>
       <c r="F8">
-        <v>1.036423323903248</v>
+        <v>1.065838288378842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05644326538765</v>
+        <v>1.045361773704768</v>
       </c>
       <c r="J8">
-        <v>1.042527719542856</v>
+        <v>1.047851350966141</v>
       </c>
       <c r="K8">
-        <v>1.047559522362581</v>
+        <v>1.049235658083749</v>
       </c>
       <c r="L8">
-        <v>1.038028589548292</v>
+        <v>1.06122862429553</v>
       </c>
       <c r="M8">
-        <v>1.047131525078406</v>
+        <v>1.068488949825655</v>
       </c>
       <c r="N8">
-        <v>1.017599038070666</v>
+        <v>1.019791970701686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009406502344674</v>
+        <v>1.040535771523545</v>
       </c>
       <c r="D9">
-        <v>1.027468967492278</v>
+        <v>1.044679655422271</v>
       </c>
       <c r="E9">
-        <v>1.014960233983965</v>
+        <v>1.055908631212894</v>
       </c>
       <c r="F9">
-        <v>1.023598818605507</v>
+        <v>1.063093202255995</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051512126349831</v>
+        <v>1.044575248794527</v>
       </c>
       <c r="J9">
-        <v>1.034631410203734</v>
+        <v>1.046306819534248</v>
       </c>
       <c r="K9">
-        <v>1.040131563672974</v>
+        <v>1.047814176609168</v>
       </c>
       <c r="L9">
-        <v>1.027815166795115</v>
+        <v>1.059007603492069</v>
       </c>
       <c r="M9">
-        <v>1.036320282365913</v>
+        <v>1.06616985972583</v>
       </c>
       <c r="N9">
-        <v>1.014883658561937</v>
+        <v>1.019267281290216</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000860942543712</v>
+        <v>1.03896156617775</v>
       </c>
       <c r="D10">
-        <v>1.020864816606504</v>
+        <v>1.04344276318319</v>
       </c>
       <c r="E10">
-        <v>1.006384773597076</v>
+        <v>1.054145800604722</v>
       </c>
       <c r="F10">
-        <v>1.014606508260437</v>
+        <v>1.061266430027801</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047979500329503</v>
+        <v>1.044043690421357</v>
       </c>
       <c r="J10">
-        <v>1.029040443710013</v>
+        <v>1.045273112966081</v>
       </c>
       <c r="K10">
-        <v>1.034867299349178</v>
+        <v>1.046861978717814</v>
       </c>
       <c r="L10">
-        <v>1.020639698005576</v>
+        <v>1.05752779498433</v>
       </c>
       <c r="M10">
-        <v>1.028716952401126</v>
+        <v>1.064624118769315</v>
       </c>
       <c r="N10">
-        <v>1.0129598303528</v>
+        <v>1.018915566648942</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9970372937267518</v>
+        <v>1.038279679125258</v>
       </c>
       <c r="D11">
-        <v>1.017914351371652</v>
+        <v>1.042906903466231</v>
       </c>
       <c r="E11">
-        <v>1.002561876279759</v>
+        <v>1.053383387625927</v>
       </c>
       <c r="F11">
-        <v>1.01059511677748</v>
+        <v>1.060476188933437</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046386246848543</v>
+        <v>1.043811809796197</v>
       </c>
       <c r="J11">
-        <v>1.026533846266038</v>
+        <v>1.044824552650367</v>
       </c>
       <c r="K11">
-        <v>1.032506156273238</v>
+        <v>1.046448589429116</v>
       </c>
       <c r="L11">
-        <v>1.017435640546526</v>
+        <v>1.056887222151728</v>
       </c>
       <c r="M11">
-        <v>1.025319953020307</v>
+        <v>1.063954865338497</v>
       </c>
       <c r="N11">
-        <v>1.012097153864475</v>
+        <v>1.018762815331355</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9955972847767685</v>
+        <v>1.038026358425932</v>
       </c>
       <c r="D12">
-        <v>1.016803949504303</v>
+        <v>1.04270781984202</v>
       </c>
       <c r="E12">
-        <v>1.001124300382267</v>
+        <v>1.053100328645655</v>
       </c>
       <c r="F12">
-        <v>1.009086248844046</v>
+        <v>1.060182772117219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045784377976748</v>
+        <v>1.043725421649273</v>
       </c>
       <c r="J12">
-        <v>1.025589151324068</v>
+        <v>1.044657793203385</v>
       </c>
       <c r="K12">
-        <v>1.03161614136786</v>
+        <v>1.046294875735446</v>
       </c>
       <c r="L12">
-        <v>1.016229992223776</v>
+        <v>1.05664931339966</v>
       </c>
       <c r="M12">
-        <v>1.024041416752574</v>
+        <v>1.063706283585087</v>
       </c>
       <c r="N12">
-        <v>1.011772010906697</v>
+        <v>1.018706008128319</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9959070850768967</v>
+        <v>1.038080698281306</v>
       </c>
       <c r="D13">
-        <v>1.017042803123054</v>
+        <v>1.042750525828754</v>
       </c>
       <c r="E13">
-        <v>1.001433479666765</v>
+        <v>1.053161039653581</v>
       </c>
       <c r="F13">
-        <v>1.009410779585688</v>
+        <v>1.060245705877928</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045913944916577</v>
+        <v>1.043743963847616</v>
       </c>
       <c r="J13">
-        <v>1.02579242145706</v>
+        <v>1.044693570197612</v>
       </c>
       <c r="K13">
-        <v>1.031807652060358</v>
+        <v>1.04632785519907</v>
       </c>
       <c r="L13">
-        <v>1.016489326108083</v>
+        <v>1.056700344354084</v>
       </c>
       <c r="M13">
-        <v>1.024316441739107</v>
+        <v>1.063759604828384</v>
       </c>
       <c r="N13">
-        <v>1.011841972441717</v>
+        <v>1.018718196568321</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9969186720472424</v>
+        <v>1.038258740325222</v>
       </c>
       <c r="D14">
-        <v>1.017822865340819</v>
+        <v>1.042890447996602</v>
       </c>
       <c r="E14">
-        <v>1.002443411188219</v>
+        <v>1.053359987129495</v>
       </c>
       <c r="F14">
-        <v>1.01047078517457</v>
+        <v>1.06045193268856</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046336704562441</v>
+        <v>1.04380467417562</v>
       </c>
       <c r="J14">
-        <v>1.026456040229832</v>
+        <v>1.044810771204496</v>
       </c>
       <c r="K14">
-        <v>1.032432856490125</v>
+        <v>1.046435886722604</v>
       </c>
       <c r="L14">
-        <v>1.017336303576399</v>
+        <v>1.056867555961905</v>
       </c>
       <c r="M14">
-        <v>1.02521461642414</v>
+        <v>1.063934317317993</v>
       </c>
       <c r="N14">
-        <v>1.012070374992669</v>
+        <v>1.01875812102871</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9975392913481874</v>
+        <v>1.038368432920299</v>
       </c>
       <c r="D15">
-        <v>1.018301544555832</v>
+        <v>1.042976653172963</v>
       </c>
       <c r="E15">
-        <v>1.003063298962832</v>
+        <v>1.053482583122385</v>
       </c>
       <c r="F15">
-        <v>1.01112135365197</v>
+        <v>1.060579010904339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046595831295337</v>
+        <v>1.043842045707001</v>
       </c>
       <c r="J15">
-        <v>1.026863087276859</v>
+        <v>1.044882963503699</v>
       </c>
       <c r="K15">
-        <v>1.032816323207389</v>
+        <v>1.046502426974654</v>
       </c>
       <c r="L15">
-        <v>1.017856068496677</v>
+        <v>1.056970584312506</v>
       </c>
       <c r="M15">
-        <v>1.025765761759741</v>
+        <v>1.064041964592118</v>
       </c>
       <c r="N15">
-        <v>1.012210469774162</v>
+        <v>1.018782710722138</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001112006122776</v>
+        <v>1.039006815549706</v>
       </c>
       <c r="D16">
-        <v>1.021058647036029</v>
+        <v>1.043478320602808</v>
       </c>
       <c r="E16">
-        <v>1.006636083873457</v>
+        <v>1.054196418434744</v>
       </c>
       <c r="F16">
-        <v>1.014870153512577</v>
+        <v>1.061318891743375</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048083856872355</v>
+        <v>1.044059043489296</v>
       </c>
       <c r="J16">
-        <v>1.029204929730073</v>
+        <v>1.04530286222755</v>
       </c>
       <c r="K16">
-        <v>1.035022220472714</v>
+        <v>1.046889391217077</v>
       </c>
       <c r="L16">
-        <v>1.020850217859248</v>
+        <v>1.057570311727463</v>
       </c>
       <c r="M16">
-        <v>1.028940109827671</v>
+        <v>1.064668536180007</v>
       </c>
       <c r="N16">
-        <v>1.0130164376634</v>
+        <v>1.01892569463426</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003319230686076</v>
+        <v>1.039407189913827</v>
       </c>
       <c r="D17">
-        <v>1.022763228623833</v>
+        <v>1.043792929239026</v>
       </c>
       <c r="E17">
-        <v>1.008847084558596</v>
+        <v>1.054644430069827</v>
       </c>
       <c r="F17">
-        <v>1.017189371788205</v>
+        <v>1.061783203268147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048999882121019</v>
+        <v>1.044194701953233</v>
       </c>
       <c r="J17">
-        <v>1.030650450622244</v>
+        <v>1.045565996858194</v>
       </c>
       <c r="K17">
-        <v>1.03638357034469</v>
+        <v>1.047131834128655</v>
       </c>
       <c r="L17">
-        <v>1.022701750367575</v>
+        <v>1.057946556388967</v>
       </c>
       <c r="M17">
-        <v>1.030902575419762</v>
+        <v>1.065061584294421</v>
       </c>
       <c r="N17">
-        <v>1.013513891150825</v>
+        <v>1.019015262452875</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.0045948508505</v>
+        <v>1.039640697833324</v>
       </c>
       <c r="D18">
-        <v>1.023748778008118</v>
+        <v>1.043976408374486</v>
       </c>
       <c r="E18">
-        <v>1.010126222007325</v>
+        <v>1.054905834977195</v>
       </c>
       <c r="F18">
-        <v>1.018530864748577</v>
+        <v>1.062054102027373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049528083855015</v>
+        <v>1.044273664030507</v>
       </c>
       <c r="J18">
-        <v>1.031485387107373</v>
+        <v>1.045719386361099</v>
       </c>
       <c r="K18">
-        <v>1.037169792521435</v>
+        <v>1.047273142649068</v>
       </c>
       <c r="L18">
-        <v>1.023772423304004</v>
+        <v>1.058166032296286</v>
       </c>
       <c r="M18">
-        <v>1.032037218066737</v>
+        <v>1.0652908486926</v>
       </c>
       <c r="N18">
-        <v>1.01380120506287</v>
+        <v>1.019067461792984</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005027834903264</v>
+        <v>1.039720314001296</v>
       </c>
       <c r="D19">
-        <v>1.024083372374451</v>
+        <v>1.044038965473719</v>
       </c>
       <c r="E19">
-        <v>1.010560625614243</v>
+        <v>1.054994982124767</v>
       </c>
       <c r="F19">
-        <v>1.018986402239673</v>
+        <v>1.062146484028298</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049707167021406</v>
+        <v>1.044300560038876</v>
       </c>
       <c r="J19">
-        <v>1.031768708183181</v>
+        <v>1.045771672537162</v>
       </c>
       <c r="K19">
-        <v>1.03743656642428</v>
+        <v>1.04732130750843</v>
       </c>
       <c r="L19">
-        <v>1.024135945879244</v>
+        <v>1.058240871110437</v>
       </c>
       <c r="M19">
-        <v>1.032422429835028</v>
+        <v>1.065369022978808</v>
       </c>
       <c r="N19">
-        <v>1.0138986969075</v>
+        <v>1.019085252945915</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003083646981673</v>
+        <v>1.039364235986235</v>
       </c>
       <c r="D20">
-        <v>1.022581249197676</v>
+        <v>1.043759177476205</v>
       </c>
       <c r="E20">
-        <v>1.008610959061591</v>
+        <v>1.054596353636451</v>
       </c>
       <c r="F20">
-        <v>1.01694171532204</v>
+        <v>1.061733379417762</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048902235799511</v>
+        <v>1.044180164172955</v>
       </c>
       <c r="J20">
-        <v>1.030496214556914</v>
+        <v>1.045537774568823</v>
       </c>
       <c r="K20">
-        <v>1.036238325238011</v>
+        <v>1.047105833090106</v>
       </c>
       <c r="L20">
-        <v>1.022504066391481</v>
+        <v>1.057906186961318</v>
       </c>
       <c r="M20">
-        <v>1.030693065938574</v>
+        <v>1.065019413326781</v>
       </c>
       <c r="N20">
-        <v>1.01346081484875</v>
+        <v>1.019005657229969</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9966213398589803</v>
+        <v>1.038206312420237</v>
       </c>
       <c r="D21">
-        <v>1.017593562787296</v>
+        <v>1.042849245548858</v>
       </c>
       <c r="E21">
-        <v>1.002146506209923</v>
+        <v>1.053301398331497</v>
       </c>
       <c r="F21">
-        <v>1.010159170522748</v>
+        <v>1.060391200894551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046212494481988</v>
+        <v>1.043786803602322</v>
       </c>
       <c r="J21">
-        <v>1.026261003820823</v>
+        <v>1.044776262410329</v>
       </c>
       <c r="K21">
-        <v>1.032249113710942</v>
+        <v>1.046404078617896</v>
       </c>
       <c r="L21">
-        <v>1.017087326166386</v>
+        <v>1.056818315528801</v>
       </c>
       <c r="M21">
-        <v>1.024950596980392</v>
+        <v>1.063882868607416</v>
       </c>
       <c r="N21">
-        <v>1.012003248191258</v>
+        <v>1.018746366162635</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9924433751062958</v>
+        <v>1.037478062748437</v>
       </c>
       <c r="D22">
-        <v>1.014373442225621</v>
+        <v>1.042276895408847</v>
       </c>
       <c r="E22">
-        <v>0.9979797092231187</v>
+        <v>1.052487990098947</v>
       </c>
       <c r="F22">
-        <v>1.005784946060829</v>
+        <v>1.059547978664739</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044462838953408</v>
+        <v>1.043537993155394</v>
       </c>
       <c r="J22">
-        <v>1.02351885670855</v>
+        <v>1.044296635267427</v>
       </c>
       <c r="K22">
-        <v>1.029665436642597</v>
+        <v>1.04596191749546</v>
       </c>
       <c r="L22">
-        <v>1.013591294991067</v>
+        <v>1.056134492277478</v>
       </c>
       <c r="M22">
-        <v>1.021242666584091</v>
+        <v>1.063168328256604</v>
       </c>
       <c r="N22">
-        <v>1.011059446834251</v>
+        <v>1.018582942911022</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9946695089090537</v>
+        <v>1.037864142452343</v>
       </c>
       <c r="D23">
-        <v>1.016088759703824</v>
+        <v>1.04258033171956</v>
       </c>
       <c r="E23">
-        <v>1.000198701639408</v>
+        <v>1.052919119348038</v>
       </c>
       <c r="F23">
-        <v>1.008114631136281</v>
+        <v>1.059994924544644</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045396091405248</v>
+        <v>1.043670033457821</v>
       </c>
       <c r="J23">
-        <v>1.024980309237075</v>
+        <v>1.044550973819953</v>
       </c>
       <c r="K23">
-        <v>1.031042502230259</v>
+        <v>1.046196404612655</v>
       </c>
       <c r="L23">
-        <v>1.015453502985319</v>
+        <v>1.056496984519449</v>
       </c>
       <c r="M23">
-        <v>1.02321790357485</v>
+        <v>1.063547115048362</v>
       </c>
       <c r="N23">
-        <v>1.011562458277362</v>
+        <v>1.018669614258193</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003190133545407</v>
+        <v>1.039383645090084</v>
       </c>
       <c r="D24">
-        <v>1.022663504705449</v>
+        <v>1.043774428527586</v>
       </c>
       <c r="E24">
-        <v>1.008717686382454</v>
+        <v>1.054618077037255</v>
       </c>
       <c r="F24">
-        <v>1.017053655353009</v>
+        <v>1.061755892443092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048946376783333</v>
+        <v>1.044186733680463</v>
       </c>
       <c r="J24">
-        <v>1.030565932515425</v>
+        <v>1.045550527292164</v>
       </c>
       <c r="K24">
-        <v>1.036303979395088</v>
+        <v>1.047117582162461</v>
       </c>
       <c r="L24">
-        <v>1.022593419925194</v>
+        <v>1.057924428109777</v>
       </c>
       <c r="M24">
-        <v>1.030787765177491</v>
+        <v>1.06503846855278</v>
       </c>
       <c r="N24">
-        <v>1.013484806509986</v>
+        <v>1.01900999755283</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012617752985758</v>
+        <v>1.041146016575133</v>
       </c>
       <c r="D25">
-        <v>1.029954058634666</v>
+        <v>1.045159060921626</v>
       </c>
       <c r="E25">
-        <v>1.018194716584241</v>
+        <v>1.056593049964786</v>
       </c>
       <c r="F25">
-        <v>1.026988284601294</v>
+        <v>1.063802291529221</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052828446437133</v>
+        <v>1.044779854974237</v>
       </c>
       <c r="J25">
-        <v>1.036727815135648</v>
+        <v>1.046706826322658</v>
       </c>
       <c r="K25">
-        <v>1.042104514182811</v>
+        <v>1.048182464931822</v>
       </c>
       <c r="L25">
-        <v>1.030516999447794</v>
+        <v>1.059581635107459</v>
       </c>
       <c r="M25">
-        <v>1.039181605536949</v>
+        <v>1.06676934209084</v>
       </c>
       <c r="N25">
-        <v>1.015604814628031</v>
+        <v>1.019403265160395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042550952377426</v>
+        <v>1.019805349866944</v>
       </c>
       <c r="D2">
-        <v>1.04626258578844</v>
+        <v>1.03552245522663</v>
       </c>
       <c r="E2">
-        <v>1.058171073134544</v>
+        <v>1.0254600593551</v>
       </c>
       <c r="F2">
-        <v>1.065436855929432</v>
+        <v>1.034597001291921</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045247703823105</v>
+        <v>1.055749564589016</v>
       </c>
       <c r="J2">
-        <v>1.047626167743156</v>
+        <v>1.041409403099741</v>
       </c>
       <c r="K2">
-        <v>1.049028513544368</v>
+        <v>1.046508131615229</v>
       </c>
       <c r="L2">
-        <v>1.060904037257699</v>
+        <v>1.036575734041417</v>
       </c>
       <c r="M2">
-        <v>1.068150099556459</v>
+        <v>1.045594501854929</v>
       </c>
       <c r="N2">
-        <v>1.019715539324603</v>
+        <v>1.017214646358403</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043570650321521</v>
+        <v>1.024849000875512</v>
       </c>
       <c r="D3">
-        <v>1.047063344749364</v>
+        <v>1.03943453143281</v>
       </c>
       <c r="E3">
-        <v>1.059318491080247</v>
+        <v>1.030581095628447</v>
       </c>
       <c r="F3">
-        <v>1.066625080528694</v>
+        <v>1.03995589985249</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045584376023714</v>
+        <v>1.057776261998374</v>
       </c>
       <c r="J3">
-        <v>1.048292001340359</v>
+        <v>1.04468443960154</v>
       </c>
       <c r="K3">
-        <v>1.049640907810585</v>
+        <v>1.049586528567996</v>
       </c>
       <c r="L3">
-        <v>1.061864590060655</v>
+        <v>1.040837084789554</v>
       </c>
       <c r="M3">
-        <v>1.06915279106903</v>
+        <v>1.050101841265472</v>
       </c>
       <c r="N3">
-        <v>1.019941468569128</v>
+        <v>1.018340143884366</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044230277128939</v>
+        <v>1.028036686079511</v>
       </c>
       <c r="D4">
-        <v>1.047581258023352</v>
+        <v>1.04190882464259</v>
       </c>
       <c r="E4">
-        <v>1.060061707928994</v>
+        <v>1.033828164676813</v>
       </c>
       <c r="F4">
-        <v>1.067394587894369</v>
+        <v>1.043351898664714</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045800825015711</v>
+        <v>1.059046229219514</v>
       </c>
       <c r="J4">
-        <v>1.048722059370135</v>
+        <v>1.046749419455751</v>
       </c>
       <c r="K4">
-        <v>1.050036283447408</v>
+        <v>1.051526449050132</v>
       </c>
       <c r="L4">
-        <v>1.062486308186568</v>
+        <v>1.043534762013783</v>
       </c>
       <c r="M4">
-        <v>1.069801668228632</v>
+        <v>1.052953811944205</v>
       </c>
       <c r="N4">
-        <v>1.020087285160783</v>
+        <v>1.01904943123883</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044507539970328</v>
+        <v>1.029359334942762</v>
       </c>
       <c r="D5">
-        <v>1.047798932998742</v>
+        <v>1.042935846761335</v>
       </c>
       <c r="E5">
-        <v>1.060374338818515</v>
+        <v>1.035177956409261</v>
       </c>
       <c r="F5">
-        <v>1.067718244028635</v>
+        <v>1.044763151439692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045891484848253</v>
+        <v>1.059570505328327</v>
       </c>
       <c r="J5">
-        <v>1.048902668774837</v>
+        <v>1.047605019580609</v>
       </c>
       <c r="K5">
-        <v>1.050202287483889</v>
+        <v>1.052329965185436</v>
       </c>
       <c r="L5">
-        <v>1.062747721028903</v>
+        <v>1.044655137709296</v>
       </c>
       <c r="M5">
-        <v>1.070074472973225</v>
+        <v>1.054137924696565</v>
       </c>
       <c r="N5">
-        <v>1.020148496641947</v>
+        <v>1.019343221460798</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044554091032739</v>
+        <v>1.029580410024476</v>
       </c>
       <c r="D6">
-        <v>1.047835478303568</v>
+        <v>1.043107529821762</v>
       </c>
       <c r="E6">
-        <v>1.060426841635982</v>
+        <v>1.035403715202861</v>
       </c>
       <c r="F6">
-        <v>1.067772596433889</v>
+        <v>1.044999163659323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045906687367878</v>
+        <v>1.059657978068737</v>
       </c>
       <c r="J6">
-        <v>1.048932982921667</v>
+        <v>1.047747957330525</v>
       </c>
       <c r="K6">
-        <v>1.050230147862786</v>
+        <v>1.052464185732561</v>
       </c>
       <c r="L6">
-        <v>1.062791615900432</v>
+        <v>1.044842464546388</v>
       </c>
       <c r="M6">
-        <v>1.070120279084569</v>
+        <v>1.054335888237736</v>
       </c>
       <c r="N6">
-        <v>1.020158769049306</v>
+        <v>1.019392296678682</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044233982102223</v>
+        <v>1.028054427044064</v>
       </c>
       <c r="D7">
-        <v>1.047584166826633</v>
+        <v>1.041922598879562</v>
       </c>
       <c r="E7">
-        <v>1.060065884600513</v>
+        <v>1.033846259832665</v>
       </c>
       <c r="F7">
-        <v>1.067398911992935</v>
+        <v>1.043370819524798</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045802037734493</v>
+        <v>1.059053272026408</v>
       </c>
       <c r="J7">
-        <v>1.048724473416661</v>
+        <v>1.046760900627534</v>
       </c>
       <c r="K7">
-        <v>1.05003850243421</v>
+        <v>1.051537232383333</v>
       </c>
       <c r="L7">
-        <v>1.062489801030151</v>
+        <v>1.043549785744993</v>
       </c>
       <c r="M7">
-        <v>1.069805313392589</v>
+        <v>1.052969691714043</v>
       </c>
       <c r="N7">
-        <v>1.020088103424623</v>
+        <v>1.019053373950826</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042895602722743</v>
+        <v>1.021526033801771</v>
       </c>
       <c r="D8">
-        <v>1.046533253692985</v>
+        <v>1.036856685754791</v>
       </c>
       <c r="E8">
-        <v>1.058558691136786</v>
+        <v>1.027204936191092</v>
       </c>
       <c r="F8">
-        <v>1.065838288378842</v>
+        <v>1.036423323903248</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045361773704768</v>
+        <v>1.05644326538765</v>
       </c>
       <c r="J8">
-        <v>1.047851350966141</v>
+        <v>1.042527719542856</v>
       </c>
       <c r="K8">
-        <v>1.049235658083749</v>
+        <v>1.047559522362581</v>
       </c>
       <c r="L8">
-        <v>1.06122862429553</v>
+        <v>1.038028589548292</v>
       </c>
       <c r="M8">
-        <v>1.068488949825655</v>
+        <v>1.047131525078406</v>
       </c>
       <c r="N8">
-        <v>1.019791970701686</v>
+        <v>1.017599038070665</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040535771523545</v>
+        <v>1.009406502344675</v>
       </c>
       <c r="D9">
-        <v>1.044679655422271</v>
+        <v>1.027468967492279</v>
       </c>
       <c r="E9">
-        <v>1.055908631212894</v>
+        <v>1.014960233983966</v>
       </c>
       <c r="F9">
-        <v>1.063093202255995</v>
+        <v>1.023598818605508</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044575248794527</v>
+        <v>1.051512126349832</v>
       </c>
       <c r="J9">
-        <v>1.046306819534248</v>
+        <v>1.034631410203735</v>
       </c>
       <c r="K9">
-        <v>1.047814176609168</v>
+        <v>1.040131563672975</v>
       </c>
       <c r="L9">
-        <v>1.059007603492069</v>
+        <v>1.027815166795115</v>
       </c>
       <c r="M9">
-        <v>1.06616985972583</v>
+        <v>1.036320282365915</v>
       </c>
       <c r="N9">
-        <v>1.019267281290216</v>
+        <v>1.014883658561937</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03896156617775</v>
+        <v>1.000860942543711</v>
       </c>
       <c r="D10">
-        <v>1.04344276318319</v>
+        <v>1.020864816606504</v>
       </c>
       <c r="E10">
-        <v>1.054145800604722</v>
+        <v>1.006384773597076</v>
       </c>
       <c r="F10">
-        <v>1.061266430027801</v>
+        <v>1.014606508260437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044043690421357</v>
+        <v>1.047979500329502</v>
       </c>
       <c r="J10">
-        <v>1.045273112966081</v>
+        <v>1.029040443710012</v>
       </c>
       <c r="K10">
-        <v>1.046861978717814</v>
+        <v>1.034867299349177</v>
       </c>
       <c r="L10">
-        <v>1.05752779498433</v>
+        <v>1.020639698005575</v>
       </c>
       <c r="M10">
-        <v>1.064624118769315</v>
+        <v>1.028716952401126</v>
       </c>
       <c r="N10">
-        <v>1.018915566648942</v>
+        <v>1.012959830352799</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038279679125258</v>
+        <v>0.9970372937267533</v>
       </c>
       <c r="D11">
-        <v>1.042906903466231</v>
+        <v>1.017914351371654</v>
       </c>
       <c r="E11">
-        <v>1.053383387625927</v>
+        <v>1.002561876279761</v>
       </c>
       <c r="F11">
-        <v>1.060476188933437</v>
+        <v>1.010595116777481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043811809796197</v>
+        <v>1.046386246848545</v>
       </c>
       <c r="J11">
-        <v>1.044824552650367</v>
+        <v>1.02653384626604</v>
       </c>
       <c r="K11">
-        <v>1.046448589429116</v>
+        <v>1.03250615627324</v>
       </c>
       <c r="L11">
-        <v>1.056887222151728</v>
+        <v>1.017435640546527</v>
       </c>
       <c r="M11">
-        <v>1.063954865338497</v>
+        <v>1.025319953020309</v>
       </c>
       <c r="N11">
-        <v>1.018762815331355</v>
+        <v>1.012097153864476</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038026358425932</v>
+        <v>0.9955972847767685</v>
       </c>
       <c r="D12">
-        <v>1.04270781984202</v>
+        <v>1.016803949504303</v>
       </c>
       <c r="E12">
-        <v>1.053100328645655</v>
+        <v>1.001124300382267</v>
       </c>
       <c r="F12">
-        <v>1.060182772117219</v>
+        <v>1.009086248844046</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043725421649273</v>
+        <v>1.045784377976748</v>
       </c>
       <c r="J12">
-        <v>1.044657793203385</v>
+        <v>1.025589151324068</v>
       </c>
       <c r="K12">
-        <v>1.046294875735446</v>
+        <v>1.03161614136786</v>
       </c>
       <c r="L12">
-        <v>1.05664931339966</v>
+        <v>1.016229992223776</v>
       </c>
       <c r="M12">
-        <v>1.063706283585087</v>
+        <v>1.024041416752574</v>
       </c>
       <c r="N12">
-        <v>1.018706008128319</v>
+        <v>1.011772010906697</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038080698281306</v>
+        <v>0.9959070850768966</v>
       </c>
       <c r="D13">
-        <v>1.042750525828754</v>
+        <v>1.017042803123054</v>
       </c>
       <c r="E13">
-        <v>1.053161039653581</v>
+        <v>1.001433479666765</v>
       </c>
       <c r="F13">
-        <v>1.060245705877928</v>
+        <v>1.009410779585687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043743963847616</v>
+        <v>1.045913944916577</v>
       </c>
       <c r="J13">
-        <v>1.044693570197612</v>
+        <v>1.02579242145706</v>
       </c>
       <c r="K13">
-        <v>1.04632785519907</v>
+        <v>1.031807652060358</v>
       </c>
       <c r="L13">
-        <v>1.056700344354084</v>
+        <v>1.016489326108083</v>
       </c>
       <c r="M13">
-        <v>1.063759604828384</v>
+        <v>1.024316441739107</v>
       </c>
       <c r="N13">
-        <v>1.018718196568321</v>
+        <v>1.011841972441717</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038258740325222</v>
+        <v>0.9969186720472429</v>
       </c>
       <c r="D14">
-        <v>1.042890447996602</v>
+        <v>1.017822865340819</v>
       </c>
       <c r="E14">
-        <v>1.053359987129495</v>
+        <v>1.00244341118822</v>
       </c>
       <c r="F14">
-        <v>1.06045193268856</v>
+        <v>1.010470785174571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04380467417562</v>
+        <v>1.046336704562441</v>
       </c>
       <c r="J14">
-        <v>1.044810771204496</v>
+        <v>1.026456040229832</v>
       </c>
       <c r="K14">
-        <v>1.046435886722604</v>
+        <v>1.032432856490126</v>
       </c>
       <c r="L14">
-        <v>1.056867555961905</v>
+        <v>1.0173363035764</v>
       </c>
       <c r="M14">
-        <v>1.063934317317993</v>
+        <v>1.025214616424141</v>
       </c>
       <c r="N14">
-        <v>1.01875812102871</v>
+        <v>1.012070374992669</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038368432920299</v>
+        <v>0.997539291348188</v>
       </c>
       <c r="D15">
-        <v>1.042976653172963</v>
+        <v>1.018301544555832</v>
       </c>
       <c r="E15">
-        <v>1.053482583122385</v>
+        <v>1.003063298962833</v>
       </c>
       <c r="F15">
-        <v>1.060579010904339</v>
+        <v>1.011121353651971</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043842045707001</v>
+        <v>1.046595831295337</v>
       </c>
       <c r="J15">
-        <v>1.044882963503699</v>
+        <v>1.02686308727686</v>
       </c>
       <c r="K15">
-        <v>1.046502426974654</v>
+        <v>1.032816323207389</v>
       </c>
       <c r="L15">
-        <v>1.056970584312506</v>
+        <v>1.017856068496678</v>
       </c>
       <c r="M15">
-        <v>1.064041964592118</v>
+        <v>1.025765761759742</v>
       </c>
       <c r="N15">
-        <v>1.018782710722138</v>
+        <v>1.012210469774162</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039006815549706</v>
+        <v>1.001112006122776</v>
       </c>
       <c r="D16">
-        <v>1.043478320602808</v>
+        <v>1.021058647036029</v>
       </c>
       <c r="E16">
-        <v>1.054196418434744</v>
+        <v>1.006636083873457</v>
       </c>
       <c r="F16">
-        <v>1.061318891743375</v>
+        <v>1.014870153512577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044059043489296</v>
+        <v>1.048083856872355</v>
       </c>
       <c r="J16">
-        <v>1.04530286222755</v>
+        <v>1.029204929730073</v>
       </c>
       <c r="K16">
-        <v>1.046889391217077</v>
+        <v>1.035022220472714</v>
       </c>
       <c r="L16">
-        <v>1.057570311727463</v>
+        <v>1.020850217859248</v>
       </c>
       <c r="M16">
-        <v>1.064668536180007</v>
+        <v>1.028940109827672</v>
       </c>
       <c r="N16">
-        <v>1.01892569463426</v>
+        <v>1.0130164376634</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039407189913827</v>
+        <v>1.003319230686076</v>
       </c>
       <c r="D17">
-        <v>1.043792929239026</v>
+        <v>1.022763228623833</v>
       </c>
       <c r="E17">
-        <v>1.054644430069827</v>
+        <v>1.008847084558596</v>
       </c>
       <c r="F17">
-        <v>1.061783203268147</v>
+        <v>1.017189371788205</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044194701953233</v>
+        <v>1.048999882121018</v>
       </c>
       <c r="J17">
-        <v>1.045565996858194</v>
+        <v>1.030650450622244</v>
       </c>
       <c r="K17">
-        <v>1.047131834128655</v>
+        <v>1.036383570344689</v>
       </c>
       <c r="L17">
-        <v>1.057946556388967</v>
+        <v>1.022701750367576</v>
       </c>
       <c r="M17">
-        <v>1.065061584294421</v>
+        <v>1.030902575419762</v>
       </c>
       <c r="N17">
-        <v>1.019015262452875</v>
+        <v>1.013513891150826</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039640697833324</v>
+        <v>1.004594850850501</v>
       </c>
       <c r="D18">
-        <v>1.043976408374486</v>
+        <v>1.023748778008118</v>
       </c>
       <c r="E18">
-        <v>1.054905834977195</v>
+        <v>1.010126222007325</v>
       </c>
       <c r="F18">
-        <v>1.062054102027373</v>
+        <v>1.018530864748578</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044273664030507</v>
+        <v>1.049528083855015</v>
       </c>
       <c r="J18">
-        <v>1.045719386361099</v>
+        <v>1.031485387107374</v>
       </c>
       <c r="K18">
-        <v>1.047273142649068</v>
+        <v>1.037169792521436</v>
       </c>
       <c r="L18">
-        <v>1.058166032296286</v>
+        <v>1.023772423304005</v>
       </c>
       <c r="M18">
-        <v>1.0652908486926</v>
+        <v>1.032037218066738</v>
       </c>
       <c r="N18">
-        <v>1.019067461792984</v>
+        <v>1.01380120506287</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039720314001296</v>
+        <v>1.005027834903264</v>
       </c>
       <c r="D19">
-        <v>1.044038965473719</v>
+        <v>1.024083372374452</v>
       </c>
       <c r="E19">
-        <v>1.054994982124767</v>
+        <v>1.010560625614244</v>
       </c>
       <c r="F19">
-        <v>1.062146484028298</v>
+        <v>1.018986402239674</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044300560038876</v>
+        <v>1.049707167021406</v>
       </c>
       <c r="J19">
-        <v>1.045771672537162</v>
+        <v>1.031768708183181</v>
       </c>
       <c r="K19">
-        <v>1.04732130750843</v>
+        <v>1.037436566424281</v>
       </c>
       <c r="L19">
-        <v>1.058240871110437</v>
+        <v>1.024135945879245</v>
       </c>
       <c r="M19">
-        <v>1.065369022978808</v>
+        <v>1.032422429835029</v>
       </c>
       <c r="N19">
-        <v>1.019085252945915</v>
+        <v>1.0138986969075</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039364235986235</v>
+        <v>1.003083646981674</v>
       </c>
       <c r="D20">
-        <v>1.043759177476205</v>
+        <v>1.022581249197678</v>
       </c>
       <c r="E20">
-        <v>1.054596353636451</v>
+        <v>1.008610959061592</v>
       </c>
       <c r="F20">
-        <v>1.061733379417762</v>
+        <v>1.01694171532204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044180164172955</v>
+        <v>1.048902235799512</v>
       </c>
       <c r="J20">
-        <v>1.045537774568823</v>
+        <v>1.030496214556916</v>
       </c>
       <c r="K20">
-        <v>1.047105833090106</v>
+        <v>1.036238325238012</v>
       </c>
       <c r="L20">
-        <v>1.057906186961318</v>
+        <v>1.022504066391482</v>
       </c>
       <c r="M20">
-        <v>1.065019413326781</v>
+        <v>1.030693065938575</v>
       </c>
       <c r="N20">
-        <v>1.019005657229969</v>
+        <v>1.013460814848751</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038206312420237</v>
+        <v>0.99662133985898</v>
       </c>
       <c r="D21">
-        <v>1.042849245548858</v>
+        <v>1.017593562787296</v>
       </c>
       <c r="E21">
-        <v>1.053301398331497</v>
+        <v>1.002146506209922</v>
       </c>
       <c r="F21">
-        <v>1.060391200894551</v>
+        <v>1.010159170522747</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043786803602322</v>
+        <v>1.046212494481988</v>
       </c>
       <c r="J21">
-        <v>1.044776262410329</v>
+        <v>1.026261003820822</v>
       </c>
       <c r="K21">
-        <v>1.046404078617896</v>
+        <v>1.032249113710941</v>
       </c>
       <c r="L21">
-        <v>1.056818315528801</v>
+        <v>1.017087326166386</v>
       </c>
       <c r="M21">
-        <v>1.063882868607416</v>
+        <v>1.024950596980392</v>
       </c>
       <c r="N21">
-        <v>1.018746366162635</v>
+        <v>1.012003248191258</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037478062748437</v>
+        <v>0.9924433751062957</v>
       </c>
       <c r="D22">
-        <v>1.042276895408847</v>
+        <v>1.014373442225621</v>
       </c>
       <c r="E22">
-        <v>1.052487990098947</v>
+        <v>0.9979797092231192</v>
       </c>
       <c r="F22">
-        <v>1.059547978664739</v>
+        <v>1.005784946060829</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043537993155394</v>
+        <v>1.044462838953408</v>
       </c>
       <c r="J22">
-        <v>1.044296635267427</v>
+        <v>1.02351885670855</v>
       </c>
       <c r="K22">
-        <v>1.04596191749546</v>
+        <v>1.029665436642597</v>
       </c>
       <c r="L22">
-        <v>1.056134492277478</v>
+        <v>1.013591294991067</v>
       </c>
       <c r="M22">
-        <v>1.063168328256604</v>
+        <v>1.021242666584091</v>
       </c>
       <c r="N22">
-        <v>1.018582942911022</v>
+        <v>1.011059446834251</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037864142452343</v>
+        <v>0.9946695089090537</v>
       </c>
       <c r="D23">
-        <v>1.04258033171956</v>
+        <v>1.016088759703824</v>
       </c>
       <c r="E23">
-        <v>1.052919119348038</v>
+        <v>1.000198701639408</v>
       </c>
       <c r="F23">
-        <v>1.059994924544644</v>
+        <v>1.008114631136281</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043670033457821</v>
+        <v>1.045396091405248</v>
       </c>
       <c r="J23">
-        <v>1.044550973819953</v>
+        <v>1.024980309237075</v>
       </c>
       <c r="K23">
-        <v>1.046196404612655</v>
+        <v>1.031042502230259</v>
       </c>
       <c r="L23">
-        <v>1.056496984519449</v>
+        <v>1.015453502985318</v>
       </c>
       <c r="M23">
-        <v>1.063547115048362</v>
+        <v>1.02321790357485</v>
       </c>
       <c r="N23">
-        <v>1.018669614258193</v>
+        <v>1.011562458277362</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039383645090084</v>
+        <v>1.003190133545406</v>
       </c>
       <c r="D24">
-        <v>1.043774428527586</v>
+        <v>1.022663504705449</v>
       </c>
       <c r="E24">
-        <v>1.054618077037255</v>
+        <v>1.008717686382454</v>
       </c>
       <c r="F24">
-        <v>1.061755892443092</v>
+        <v>1.017053655353008</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044186733680463</v>
+        <v>1.048946376783333</v>
       </c>
       <c r="J24">
-        <v>1.045550527292164</v>
+        <v>1.030565932515425</v>
       </c>
       <c r="K24">
-        <v>1.047117582162461</v>
+        <v>1.036303979395088</v>
       </c>
       <c r="L24">
-        <v>1.057924428109777</v>
+        <v>1.022593419925194</v>
       </c>
       <c r="M24">
-        <v>1.06503846855278</v>
+        <v>1.03078776517749</v>
       </c>
       <c r="N24">
-        <v>1.01900999755283</v>
+        <v>1.013484806509985</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041146016575133</v>
+        <v>1.012617752985758</v>
       </c>
       <c r="D25">
-        <v>1.045159060921626</v>
+        <v>1.029954058634665</v>
       </c>
       <c r="E25">
-        <v>1.056593049964786</v>
+        <v>1.01819471658424</v>
       </c>
       <c r="F25">
-        <v>1.063802291529221</v>
+        <v>1.026988284601292</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044779854974237</v>
+        <v>1.052828446437132</v>
       </c>
       <c r="J25">
-        <v>1.046706826322658</v>
+        <v>1.036727815135647</v>
       </c>
       <c r="K25">
-        <v>1.048182464931822</v>
+        <v>1.04210451418281</v>
       </c>
       <c r="L25">
-        <v>1.059581635107459</v>
+        <v>1.030516999447792</v>
       </c>
       <c r="M25">
-        <v>1.06676934209084</v>
+        <v>1.039181605536948</v>
       </c>
       <c r="N25">
-        <v>1.019403265160395</v>
+        <v>1.015604814628031</v>
       </c>
     </row>
   </sheetData>
